--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42983,6 +42983,41 @@
         <v>149300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>34900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43018,6 +43018,41 @@
         <v>34900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>60100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43053,6 +43053,41 @@
         <v>60100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>251300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43088,6 +43088,41 @@
         <v>251300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>201600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,41 @@
         <v>201600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>53500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43193,6 +43193,41 @@
         <v>53500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>198600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,41 @@
         <v>198600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>129400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,41 @@
         <v>129400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>70200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43298,6 +43298,41 @@
         <v>70200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>76900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43333,6 +43333,41 @@
         <v>76900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>66500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43368,6 +43368,41 @@
         <v>66500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>143000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,76 @@
         <v>143000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>277000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>270000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,76 @@
         <v>270000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>407000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>134800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,41 @@
         <v>134800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>169500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>169500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>89700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>89700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>100200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>100200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>617900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,76 @@
         <v>617900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>549900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>222000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>222000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>415000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>415000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>756000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1772"/>
+  <dimension ref="A1:I1773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62408,6 +62408,41 @@
         <v>756000</v>
       </c>
     </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>603100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1773"/>
+  <dimension ref="A1:I1774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62443,6 +62443,41 @@
         <v>603100</v>
       </c>
     </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1774" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>664300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1774"/>
+  <dimension ref="A1:I1775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62478,6 +62478,41 @@
         <v>664300</v>
       </c>
     </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1775" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>269600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1775"/>
+  <dimension ref="A1:I1776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62513,6 +62513,41 @@
         <v>269600</v>
       </c>
     </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1776" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>262100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1776"/>
+  <dimension ref="A1:I1777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62548,6 +62548,41 @@
         <v>262100</v>
       </c>
     </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1777" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>222500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1777"/>
+  <dimension ref="A1:I1778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62583,6 +62583,41 @@
         <v>222500</v>
       </c>
     </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1778" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>87900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1778"/>
+  <dimension ref="A1:I1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62618,6 +62618,41 @@
         <v>87900</v>
       </c>
     </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1779" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>48500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1779"/>
+  <dimension ref="A1:I1780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62653,6 +62653,41 @@
         <v>48500</v>
       </c>
     </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1780" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>91300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1780"/>
+  <dimension ref="A1:I1781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62688,6 +62688,41 @@
         <v>91300</v>
       </c>
     </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1781" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>106000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1781"/>
+  <dimension ref="A1:I1782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62723,6 +62723,41 @@
         <v>106000</v>
       </c>
     </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1782" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>383700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1782"/>
+  <dimension ref="A1:I1783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62758,6 +62758,41 @@
         <v>383700</v>
       </c>
     </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1783" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>57600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1783"/>
+  <dimension ref="A1:I1784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62793,6 +62793,41 @@
         <v>57600</v>
       </c>
     </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1784" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>125800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1784"/>
+  <dimension ref="A1:I1785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62828,6 +62828,41 @@
         <v>125800</v>
       </c>
     </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1785" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>420500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1785"/>
+  <dimension ref="A1:I1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62863,6 +62863,41 @@
         <v>420500</v>
       </c>
     </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1786" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>166300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1786"/>
+  <dimension ref="A1:I1787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62898,6 +62898,41 @@
         <v>166300</v>
       </c>
     </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1787" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>119900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1787"/>
+  <dimension ref="A1:I1788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62933,6 +62933,41 @@
         <v>119900</v>
       </c>
     </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1788" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>202600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1788"/>
+  <dimension ref="A1:I1789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62968,6 +62968,41 @@
         <v>202600</v>
       </c>
     </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1789" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>191700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1789"/>
+  <dimension ref="A1:I1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63003,6 +63003,41 @@
         <v>191700</v>
       </c>
     </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1790" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>322000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1790"/>
+  <dimension ref="A1:I1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63038,6 +63038,41 @@
         <v>322000</v>
       </c>
     </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1791" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>139400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1791"/>
+  <dimension ref="A1:I1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63073,6 +63073,41 @@
         <v>139400</v>
       </c>
     </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1792" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>32600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1792"/>
+  <dimension ref="A1:I1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63108,6 +63108,41 @@
         <v>32600</v>
       </c>
     </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1793" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>47000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1793"/>
+  <dimension ref="A1:I1794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63143,6 +63143,41 @@
         <v>47000</v>
       </c>
     </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1794" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>23500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1794"/>
+  <dimension ref="A1:I1795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63178,6 +63178,41 @@
         <v>23500</v>
       </c>
     </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1795" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>117200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1795"/>
+  <dimension ref="A1:I1796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63213,6 +63213,41 @@
         <v>117200</v>
       </c>
     </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1796" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>188400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1796"/>
+  <dimension ref="A1:I1797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63248,6 +63248,41 @@
         <v>188400</v>
       </c>
     </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1797" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>196700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1797"/>
+  <dimension ref="A1:I1799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63283,6 +63283,76 @@
         <v>196700</v>
       </c>
     </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1798" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>382400</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1799" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>308300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1799"/>
+  <dimension ref="A1:I1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63353,6 +63353,41 @@
         <v>308300</v>
       </c>
     </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1800" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>134200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1800"/>
+  <dimension ref="A1:I1803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63388,6 +63388,111 @@
         <v>134200</v>
       </c>
     </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1801" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>58900</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1802" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1803" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1803"/>
+  <dimension ref="A1:I1804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63493,6 +63493,41 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1804" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>51000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1804"/>
+  <dimension ref="A1:I1805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63528,6 +63528,41 @@
         <v>51000</v>
       </c>
     </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1805" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5228.xlsx
+++ b/data/5228.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1805"/>
+  <dimension ref="A1:I1808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63563,6 +63563,111 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1806" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>106600</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1807" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>131700</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>5228</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>ELKDESA</t>
+        </is>
+      </c>
+      <c r="E1808" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>122300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
